--- a/biology/Botanique/Rubus_arcticus/Rubus_arcticus.xlsx
+++ b/biology/Botanique/Rubus_arcticus/Rubus_arcticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus arcticus, la Ronce arctique, Framboise arctique ou Framboisier nain (syn. : Rubus acolys), est une espèce de plantes à fleurs de la famille des Rosacées.
 C'est une ronce à croissance lente.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles ont trois folioles, de 2 à 8 cm de long, de forme ovale.
 Les fleurs sont de couleur rose vif, à cinq pétales, cinq sépales, regroupés généralement. On les aperçoit debout au-dessus des feuilles.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre ce framboisier dans les endroits humides, les landes et bois froid.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce pousse de façon naturelle dans le nord de la Suède, la Norvège, la Finlande, la Russie, dans quelques endroits en Estonie et dans certaines parties d'Amérique du Nord, notamment au Canada.
 </t>
@@ -606,11 +624,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 mai 2013)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 mai 2013) :
 sous-espèce Rubus arcticus subsp. stellatus
-Selon Tropicos                                           (20 mai 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Rubus arcticus subsp. acaulis (Michx.) Focke
 sous-espèce Rubus arcticus subsp. arcticus
 sous-espèce Rubus arcticus subsp. stellatus (Sm.) B. Boivin
